--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icosl-Cd28.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icosl-Cd28.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.155534666666667</v>
+        <v>0.9151746666666666</v>
       </c>
       <c r="H2">
-        <v>3.466604</v>
+        <v>2.745524</v>
       </c>
       <c r="I2">
-        <v>0.08588454688409856</v>
+        <v>0.03290393839381934</v>
       </c>
       <c r="J2">
-        <v>0.08588454688409858</v>
+        <v>0.03290393839381934</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.3998</v>
+        <v>6.913788666666666</v>
       </c>
       <c r="N2">
-        <v>7.199400000000001</v>
+        <v>20.741366</v>
       </c>
       <c r="O2">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="P2">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="Q2">
-        <v>2.773052093066668</v>
+        <v>6.327324238420443</v>
       </c>
       <c r="R2">
-        <v>24.9574688376</v>
+        <v>56.94591814578399</v>
       </c>
       <c r="S2">
-        <v>0.03172355473483989</v>
+        <v>0.01469111903066281</v>
       </c>
       <c r="T2">
-        <v>0.03172355473483989</v>
+        <v>0.01469111903066281</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.155534666666667</v>
+        <v>0.9151746666666666</v>
       </c>
       <c r="H3">
-        <v>3.466604</v>
+        <v>2.745524</v>
       </c>
       <c r="I3">
-        <v>0.08588454688409856</v>
+        <v>0.03290393839381934</v>
       </c>
       <c r="J3">
-        <v>0.08588454688409858</v>
+        <v>0.03290393839381934</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.09445099999999999</v>
       </c>
       <c r="O3">
-        <v>0.004845929298306607</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="P3">
-        <v>0.004845929298306606</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="Q3">
-        <v>0.03638046826711112</v>
+        <v>0.02881305414711111</v>
       </c>
       <c r="R3">
-        <v>0.327424214404</v>
+        <v>0.259317487324</v>
       </c>
       <c r="S3">
-        <v>0.0004161904420174406</v>
+        <v>6.689968652812613E-05</v>
       </c>
       <c r="T3">
-        <v>0.0004161904420174406</v>
+        <v>6.689968652812613E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.155534666666667</v>
+        <v>0.9151746666666666</v>
       </c>
       <c r="H4">
-        <v>3.466604</v>
+        <v>2.745524</v>
       </c>
       <c r="I4">
-        <v>0.08588454688409856</v>
+        <v>0.03290393839381934</v>
       </c>
       <c r="J4">
-        <v>0.08588454688409858</v>
+        <v>0.03290393839381934</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.065646999999999</v>
+        <v>8.539652666666667</v>
       </c>
       <c r="N4">
-        <v>12.196941</v>
+        <v>25.618958</v>
       </c>
       <c r="O4">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="P4">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="Q4">
-        <v>4.697996050929333</v>
+        <v>7.815273782665777</v>
       </c>
       <c r="R4">
-        <v>42.281964458364</v>
+        <v>70.33746404399199</v>
       </c>
       <c r="S4">
-        <v>0.05374480170724125</v>
+        <v>0.0181459196766284</v>
       </c>
       <c r="T4">
-        <v>0.05374480170724125</v>
+        <v>0.0181459196766284</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>2.430857</v>
       </c>
       <c r="I5">
-        <v>0.06022408443105677</v>
+        <v>0.02913278812065911</v>
       </c>
       <c r="J5">
-        <v>0.06022408443105678</v>
+        <v>0.02913278812065911</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.3998</v>
+        <v>6.913788666666666</v>
       </c>
       <c r="N5">
-        <v>7.199400000000001</v>
+        <v>20.741366</v>
       </c>
       <c r="O5">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="P5">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="Q5">
-        <v>1.944523542866667</v>
+        <v>5.602143858962443</v>
       </c>
       <c r="R5">
-        <v>17.5007118858</v>
+        <v>50.41929473066199</v>
       </c>
       <c r="S5">
-        <v>0.02224523628659883</v>
+        <v>0.01300735653140162</v>
       </c>
       <c r="T5">
-        <v>0.02224523628659883</v>
+        <v>0.01300735653140162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>2.430857</v>
       </c>
       <c r="I6">
-        <v>0.06022408443105677</v>
+        <v>0.02913278812065911</v>
       </c>
       <c r="J6">
-        <v>0.06022408443105678</v>
+        <v>0.02913278812065911</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>0.09445099999999999</v>
       </c>
       <c r="O6">
-        <v>0.004845929298306607</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="P6">
-        <v>0.004845929298306606</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="Q6">
         <v>0.02551076383411111</v>
@@ -824,10 +824,10 @@
         <v>0.2295968745069999</v>
       </c>
       <c r="S6">
-        <v>0.0002918416552081488</v>
+        <v>5.923225267551881E-05</v>
       </c>
       <c r="T6">
-        <v>0.0002918416552081487</v>
+        <v>5.923225267551881E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.430857</v>
       </c>
       <c r="I7">
-        <v>0.06022408443105677</v>
+        <v>0.02913278812065911</v>
       </c>
       <c r="J7">
-        <v>0.06022408443105678</v>
+        <v>0.02913278812065911</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.065646999999999</v>
+        <v>8.539652666666667</v>
       </c>
       <c r="N7">
-        <v>12.196941</v>
+        <v>25.618958</v>
       </c>
       <c r="O7">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="P7">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="Q7">
-        <v>3.294335489826333</v>
+        <v>6.919558154111777</v>
       </c>
       <c r="R7">
-        <v>29.64901940843699</v>
+        <v>62.27602338700598</v>
       </c>
       <c r="S7">
-        <v>0.0376870064892498</v>
+        <v>0.01606619933658197</v>
       </c>
       <c r="T7">
-        <v>0.0376870064892498</v>
+        <v>0.01606619933658197</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.685238666666667</v>
+        <v>17.439525</v>
       </c>
       <c r="H8">
-        <v>11.055716</v>
+        <v>52.318575</v>
       </c>
       <c r="I8">
-        <v>0.2739035549313618</v>
+        <v>0.6270158879151727</v>
       </c>
       <c r="J8">
-        <v>0.2739035549313619</v>
+        <v>0.6270158879151728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.3998</v>
+        <v>6.913788666666666</v>
       </c>
       <c r="N8">
-        <v>7.199400000000001</v>
+        <v>20.741366</v>
       </c>
       <c r="O8">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="P8">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="Q8">
-        <v>8.843835752266669</v>
+        <v>120.57319029705</v>
       </c>
       <c r="R8">
-        <v>79.59452177040001</v>
+        <v>1085.15871267345</v>
       </c>
       <c r="S8">
-        <v>0.1011729668744527</v>
+        <v>0.279953266786107</v>
       </c>
       <c r="T8">
-        <v>0.1011729668744527</v>
+        <v>0.279953266786107</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.685238666666667</v>
+        <v>17.439525</v>
       </c>
       <c r="H9">
-        <v>11.055716</v>
+        <v>52.318575</v>
       </c>
       <c r="I9">
-        <v>0.2739035549313618</v>
+        <v>0.6270158879151727</v>
       </c>
       <c r="J9">
-        <v>0.2739035549313619</v>
+        <v>0.6270158879151728</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -998,22 +998,22 @@
         <v>0.09445099999999999</v>
       </c>
       <c r="O9">
-        <v>0.004845929298306607</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="P9">
-        <v>0.004845929298306606</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="Q9">
-        <v>0.1160248257684444</v>
+        <v>0.549060191925</v>
       </c>
       <c r="R9">
-        <v>1.044223431916</v>
+        <v>4.941541727325</v>
       </c>
       <c r="S9">
-        <v>0.001327317261752219</v>
+        <v>0.001274837250411308</v>
       </c>
       <c r="T9">
-        <v>0.001327317261752219</v>
+        <v>0.001274837250411308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.685238666666667</v>
+        <v>17.439525</v>
       </c>
       <c r="H10">
-        <v>11.055716</v>
+        <v>52.318575</v>
       </c>
       <c r="I10">
-        <v>0.2739035549313618</v>
+        <v>0.6270158879151727</v>
       </c>
       <c r="J10">
-        <v>0.2739035549313619</v>
+        <v>0.6270158879151728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.065646999999999</v>
+        <v>8.539652666666667</v>
       </c>
       <c r="N10">
-        <v>12.196941</v>
+        <v>25.618958</v>
       </c>
       <c r="O10">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="P10">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="Q10">
-        <v>14.98287952941733</v>
+        <v>148.92748617165</v>
       </c>
       <c r="R10">
-        <v>134.845915764756</v>
+        <v>1340.34737554485</v>
       </c>
       <c r="S10">
-        <v>0.171403270795157</v>
+        <v>0.3457877838786544</v>
       </c>
       <c r="T10">
-        <v>0.171403270795157</v>
+        <v>0.3457877838786544</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.412658</v>
+        <v>0.283884</v>
       </c>
       <c r="H11">
-        <v>1.237974</v>
+        <v>0.851652</v>
       </c>
       <c r="I11">
-        <v>0.03067060328906763</v>
+        <v>0.01020668729939095</v>
       </c>
       <c r="J11">
-        <v>0.03067060328906764</v>
+        <v>0.01020668729939095</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.3998</v>
+        <v>6.913788666666666</v>
       </c>
       <c r="N11">
-        <v>7.199400000000001</v>
+        <v>20.741366</v>
       </c>
       <c r="O11">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="P11">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="Q11">
-        <v>0.9902966684000001</v>
+        <v>1.962713981848</v>
       </c>
       <c r="R11">
-        <v>8.9126700156</v>
+        <v>17.664425836632</v>
       </c>
       <c r="S11">
-        <v>0.01132893631614937</v>
+        <v>0.004557134049712203</v>
       </c>
       <c r="T11">
-        <v>0.01132893631614937</v>
+        <v>0.004557134049712203</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.412658</v>
+        <v>0.283884</v>
       </c>
       <c r="H12">
-        <v>1.237974</v>
+        <v>0.851652</v>
       </c>
       <c r="I12">
-        <v>0.03067060328906763</v>
+        <v>0.01020668729939095</v>
       </c>
       <c r="J12">
-        <v>0.03067060328906764</v>
+        <v>0.01020668729939095</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1184,22 +1184,22 @@
         <v>0.09445099999999999</v>
       </c>
       <c r="O12">
-        <v>0.004845929298306607</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="P12">
-        <v>0.004845929298306606</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="Q12">
-        <v>0.01299198691933333</v>
+        <v>0.008937709227999999</v>
       </c>
       <c r="R12">
-        <v>0.116927882274</v>
+        <v>0.08043938305199999</v>
       </c>
       <c r="S12">
-        <v>0.0001486275750752318</v>
+        <v>2.075205018461018E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001486275750752318</v>
+        <v>2.075205018461018E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.412658</v>
+        <v>0.283884</v>
       </c>
       <c r="H13">
-        <v>1.237974</v>
+        <v>0.851652</v>
       </c>
       <c r="I13">
-        <v>0.03067060328906763</v>
+        <v>0.01020668729939095</v>
       </c>
       <c r="J13">
-        <v>0.03067060328906764</v>
+        <v>0.01020668729939095</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.065646999999999</v>
+        <v>8.539652666666667</v>
       </c>
       <c r="N13">
-        <v>12.196941</v>
+        <v>25.618958</v>
       </c>
       <c r="O13">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="P13">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="Q13">
-        <v>1.677721759726</v>
+        <v>2.424270757624</v>
       </c>
       <c r="R13">
-        <v>15.099495837534</v>
+        <v>21.818436818616</v>
       </c>
       <c r="S13">
-        <v>0.01919303939784303</v>
+        <v>0.005628801199494133</v>
       </c>
       <c r="T13">
-        <v>0.01919303939784304</v>
+        <v>0.005628801199494133</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.390795</v>
+        <v>8.364660333333333</v>
       </c>
       <c r="H14">
-        <v>22.172385</v>
+        <v>25.093981</v>
       </c>
       <c r="I14">
-        <v>0.5493172104644152</v>
+        <v>0.3007406982709578</v>
       </c>
       <c r="J14">
-        <v>0.5493172104644152</v>
+        <v>0.3007406982709578</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.3998</v>
+        <v>6.913788666666666</v>
       </c>
       <c r="N14">
-        <v>7.199400000000001</v>
+        <v>20.741366</v>
       </c>
       <c r="O14">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="P14">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="Q14">
-        <v>17.736429841</v>
+        <v>57.83149381311622</v>
       </c>
       <c r="R14">
-        <v>159.627868569</v>
+        <v>520.4834443180459</v>
       </c>
       <c r="S14">
-        <v>0.2029037262835452</v>
+        <v>0.1342762481129981</v>
       </c>
       <c r="T14">
-        <v>0.2029037262835451</v>
+        <v>0.1342762481129981</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.390795</v>
+        <v>8.364660333333333</v>
       </c>
       <c r="H15">
-        <v>22.172385</v>
+        <v>25.093981</v>
       </c>
       <c r="I15">
-        <v>0.5493172104644152</v>
+        <v>0.3007406982709578</v>
       </c>
       <c r="J15">
-        <v>0.5493172104644152</v>
+        <v>0.3007406982709578</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,22 +1370,22 @@
         <v>0.09445099999999999</v>
       </c>
       <c r="O15">
-        <v>0.004845929298306607</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="P15">
-        <v>0.004845929298306606</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="Q15">
-        <v>0.2326893261816667</v>
+        <v>0.2633501777145555</v>
       </c>
       <c r="R15">
-        <v>2.094203935635</v>
+        <v>2.370151599431</v>
       </c>
       <c r="S15">
-        <v>0.002661952364253566</v>
+        <v>0.0006114604944785597</v>
       </c>
       <c r="T15">
-        <v>0.002661952364253566</v>
+        <v>0.0006114604944785597</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.390795</v>
+        <v>8.364660333333333</v>
       </c>
       <c r="H16">
-        <v>22.172385</v>
+        <v>25.093981</v>
       </c>
       <c r="I16">
-        <v>0.5493172104644152</v>
+        <v>0.3007406982709578</v>
       </c>
       <c r="J16">
-        <v>0.5493172104644152</v>
+        <v>0.3007406982709578</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.065646999999999</v>
+        <v>8.539652666666667</v>
       </c>
       <c r="N16">
-        <v>12.196941</v>
+        <v>25.618958</v>
       </c>
       <c r="O16">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="P16">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="Q16">
-        <v>30.04836351936499</v>
+        <v>71.4312939213109</v>
       </c>
       <c r="R16">
-        <v>270.4352716742849</v>
+        <v>642.881645291798</v>
       </c>
       <c r="S16">
-        <v>0.3437515318166165</v>
+        <v>0.1658529896634811</v>
       </c>
       <c r="T16">
-        <v>0.3437515318166165</v>
+        <v>0.1658529896634811</v>
       </c>
     </row>
   </sheetData>
